--- a/your_dataset.xlsx
+++ b/your_dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\porkai2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS VIVOBOOK\Downloads\porkai2-main\porkai2-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B036D-F209-458E-8BF1-DE85F18EB9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13710" windowHeight="7800"/>
+    <workbookView xWindow="7200" yWindow="2085" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="8">
   <si>
     <t>Ammonia</t>
   </si>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,11 +382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,19 +421,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="C2">
-        <v>6.8</v>
+        <v>5.58</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>21.3</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -440,19 +441,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="B3">
-        <v>0.08</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C3">
-        <v>6.7</v>
+        <v>5.82</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>21.3</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -460,61 +461,1701 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="B4">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>5.96</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>21.3</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="B5">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>5.89</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.59</v>
+      </c>
+      <c r="C6">
+        <v>6.12</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.04</v>
+      </c>
+      <c r="B7">
+        <v>0.69</v>
+      </c>
+      <c r="C7">
+        <v>5.96</v>
+      </c>
+      <c r="D7">
+        <v>124</v>
+      </c>
+      <c r="E7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.1</v>
+      </c>
+      <c r="B8">
+        <v>0.62</v>
+      </c>
+      <c r="C8">
+        <v>6.06</v>
+      </c>
+      <c r="D8">
+        <v>126</v>
+      </c>
+      <c r="E8">
+        <v>20.7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.76</v>
+      </c>
+      <c r="C9">
+        <v>5.92</v>
+      </c>
+      <c r="D9">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>20.7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.76</v>
+      </c>
+      <c r="C10">
+        <v>5.92</v>
+      </c>
+      <c r="D10">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>20.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.62</v>
+      </c>
+      <c r="C11">
+        <v>5.96</v>
+      </c>
+      <c r="D11">
+        <v>138</v>
+      </c>
+      <c r="E11">
+        <v>20.7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.73</v>
+      </c>
+      <c r="C12">
+        <v>5.79</v>
+      </c>
+      <c r="D12">
+        <v>147</v>
+      </c>
+      <c r="E12">
+        <v>20.8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.04</v>
+      </c>
+      <c r="B13">
+        <v>0.84</v>
+      </c>
+      <c r="C13">
+        <v>5.85</v>
+      </c>
+      <c r="D13">
+        <v>132</v>
+      </c>
+      <c r="E13">
+        <v>21.7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.03</v>
+      </c>
+      <c r="B14">
+        <v>0.73</v>
+      </c>
+      <c r="C14">
+        <v>6.09</v>
+      </c>
+      <c r="D14">
+        <v>129</v>
+      </c>
+      <c r="E14">
+        <v>21.8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.03</v>
+      </c>
+      <c r="B15">
+        <v>0.76</v>
+      </c>
+      <c r="C15">
+        <v>5.85</v>
+      </c>
+      <c r="D15">
+        <v>135</v>
+      </c>
+      <c r="E15">
+        <v>21.6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.03</v>
+      </c>
+      <c r="B16">
+        <v>0.76</v>
+      </c>
+      <c r="C16">
+        <v>5.75</v>
+      </c>
+      <c r="D16">
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <v>21.7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.09</v>
+      </c>
+      <c r="B17">
+        <v>0.39</v>
+      </c>
+      <c r="C17">
+        <v>6.06</v>
+      </c>
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17">
+        <v>27.2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.13</v>
+      </c>
+      <c r="B18">
+        <v>0.52</v>
+      </c>
+      <c r="C18">
+        <v>6.2</v>
+      </c>
+      <c r="D18">
+        <v>124</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.11</v>
+      </c>
+      <c r="B19">
+        <v>0.62</v>
+      </c>
+      <c r="C19">
+        <v>6.16</v>
+      </c>
+      <c r="D19">
+        <v>119</v>
+      </c>
+      <c r="E19">
+        <v>26.4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.11</v>
+      </c>
+      <c r="B20">
+        <v>0.47</v>
+      </c>
+      <c r="C20">
+        <v>5.6</v>
+      </c>
+      <c r="D20">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <v>25.8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.11</v>
+      </c>
+      <c r="B21">
+        <v>0.59</v>
+      </c>
+      <c r="C21">
+        <v>5.64</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.23</v>
+      </c>
+      <c r="B22">
+        <v>0.52</v>
+      </c>
+      <c r="C22">
+        <v>6.23</v>
+      </c>
+      <c r="D22">
+        <v>91</v>
+      </c>
+      <c r="E22">
+        <v>24.1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.02</v>
+      </c>
+      <c r="B23">
+        <v>0.62</v>
+      </c>
+      <c r="C23">
+        <v>5.86</v>
+      </c>
+      <c r="D23">
+        <v>134</v>
+      </c>
+      <c r="E23">
+        <v>24.9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.38</v>
+      </c>
+      <c r="B24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C24">
+        <v>5.45</v>
+      </c>
+      <c r="D24">
+        <v>93</v>
+      </c>
+      <c r="E24">
+        <v>24.9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B25">
+        <v>0.59</v>
+      </c>
+      <c r="C25">
+        <v>5.76</v>
+      </c>
+      <c r="D25">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <v>24.9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.21</v>
+      </c>
+      <c r="B26">
+        <v>0.62</v>
+      </c>
+      <c r="C26">
+        <v>5.64</v>
+      </c>
+      <c r="D26">
+        <v>95</v>
+      </c>
+      <c r="E26">
+        <v>24.9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.23</v>
+      </c>
+      <c r="B27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C27">
+        <v>5.89</v>
+      </c>
+      <c r="D27">
+        <v>116</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.21</v>
+      </c>
+      <c r="B28">
+        <v>0.62</v>
+      </c>
+      <c r="C28">
+        <v>6.07</v>
+      </c>
+      <c r="D28">
+        <v>135</v>
+      </c>
+      <c r="E28">
+        <v>24.6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.19</v>
+      </c>
+      <c r="B29">
+        <v>0.62</v>
+      </c>
+      <c r="C29">
+        <v>5.89</v>
+      </c>
+      <c r="D29">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>24.5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.21</v>
+      </c>
+      <c r="B30">
+        <v>0.69</v>
+      </c>
+      <c r="C30">
+        <v>6.1</v>
+      </c>
+      <c r="D30">
+        <v>108</v>
+      </c>
+      <c r="E30">
+        <v>24.3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.18</v>
+      </c>
+      <c r="B31">
+        <v>0.62</v>
+      </c>
+      <c r="C31">
+        <v>5.92</v>
+      </c>
+      <c r="D31">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>24.2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.18</v>
+      </c>
+      <c r="B32">
+        <v>0.62</v>
+      </c>
+      <c r="C32">
+        <v>6.09</v>
+      </c>
+      <c r="D32">
+        <v>133</v>
+      </c>
+      <c r="E32">
+        <v>31.7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C33">
+        <v>5.66</v>
+      </c>
+      <c r="D33">
+        <v>134</v>
+      </c>
+      <c r="E33">
+        <v>30.9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.05</v>
+      </c>
+      <c r="B34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C34">
+        <v>5.83</v>
+      </c>
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="E34">
+        <v>28.6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.05</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>5.83</v>
+      </c>
+      <c r="D35">
+        <v>105</v>
+      </c>
+      <c r="E35">
+        <v>28.6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.08</v>
+      </c>
+      <c r="B36">
+        <v>0.47</v>
+      </c>
+      <c r="C36">
+        <v>5.94</v>
+      </c>
+      <c r="D36">
+        <v>154</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.08</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>5.6</v>
+      </c>
+      <c r="D37">
+        <v>172</v>
+      </c>
+      <c r="E37">
+        <v>30.1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.08</v>
+      </c>
+      <c r="B38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C38">
+        <v>6.14</v>
+      </c>
+      <c r="D38">
+        <v>129</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.08</v>
+      </c>
+      <c r="B39">
+        <v>0.42</v>
+      </c>
+      <c r="C39">
+        <v>5.89</v>
+      </c>
+      <c r="D39">
+        <v>129</v>
+      </c>
+      <c r="E39">
+        <v>30.1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>6.11</v>
+      </c>
+      <c r="D40">
+        <v>99</v>
+      </c>
+      <c r="E40">
+        <v>29.7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.52</v>
+      </c>
+      <c r="C41">
+        <v>5.71</v>
+      </c>
+      <c r="D41">
+        <v>126</v>
+      </c>
+      <c r="E41">
+        <v>29.8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.12</v>
+      </c>
+      <c r="B42">
+        <v>0.76</v>
+      </c>
+      <c r="C42">
+        <v>5.89</v>
+      </c>
+      <c r="D42">
+        <v>162</v>
+      </c>
+      <c r="E42">
+        <v>30.1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.12</v>
+      </c>
+      <c r="B43">
+        <v>0.65</v>
+      </c>
+      <c r="C43">
+        <v>6.11</v>
+      </c>
+      <c r="D43">
+        <v>89</v>
+      </c>
+      <c r="E43">
+        <v>30.1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.12</v>
+      </c>
+      <c r="B44">
+        <v>0.76</v>
+      </c>
+      <c r="C44">
+        <v>6.06</v>
+      </c>
+      <c r="D44">
+        <v>134</v>
+      </c>
+      <c r="E44">
+        <v>30.1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.08</v>
+      </c>
+      <c r="B45">
+        <v>0.59</v>
+      </c>
+      <c r="C45">
+        <v>5.89</v>
+      </c>
+      <c r="D45">
+        <v>134</v>
+      </c>
+      <c r="E45">
+        <v>29.9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.08</v>
+      </c>
+      <c r="B46">
+        <v>0.52</v>
+      </c>
+      <c r="C46">
+        <v>6.06</v>
+      </c>
+      <c r="D46">
+        <v>113</v>
+      </c>
+      <c r="E46">
+        <v>29.9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.02</v>
+      </c>
+      <c r="B47">
+        <v>0.37</v>
+      </c>
+      <c r="C47">
+        <v>7.49</v>
+      </c>
+      <c r="D47">
+        <v>161</v>
+      </c>
+      <c r="E47">
+        <v>22.6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.01</v>
+      </c>
+      <c r="B48">
+        <v>0.59</v>
+      </c>
+      <c r="C48">
+        <v>7.56</v>
+      </c>
+      <c r="D48">
+        <v>140</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3.36</v>
+      </c>
+      <c r="B49">
+        <v>0.69</v>
+      </c>
+      <c r="C49">
+        <v>7.07</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>22.4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.74</v>
+      </c>
+      <c r="B50">
+        <v>0.21</v>
+      </c>
+      <c r="C50">
+        <v>7.28</v>
+      </c>
+      <c r="D50">
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <v>22.4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3.1</v>
+      </c>
+      <c r="B51">
+        <v>4.01</v>
+      </c>
+      <c r="C51">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="D51">
+        <v>114</v>
+      </c>
+      <c r="E51">
+        <v>22.2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.71</v>
+      </c>
+      <c r="B52">
+        <v>0.15</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>22.1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2.02</v>
+      </c>
+      <c r="B53">
+        <v>21.98</v>
+      </c>
+      <c r="C53">
+        <v>7.11</v>
+      </c>
+      <c r="D53">
+        <v>145</v>
+      </c>
+      <c r="E53">
+        <v>21.8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.45</v>
+      </c>
+      <c r="B54">
+        <v>0.32</v>
+      </c>
+      <c r="C54">
+        <v>7.46</v>
+      </c>
+      <c r="D54">
+        <v>76</v>
+      </c>
+      <c r="E54">
+        <v>21.9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="B55">
         <v>0.3</v>
       </c>
-      <c r="B6">
-        <v>0.16</v>
-      </c>
-      <c r="C6">
-        <v>6.4</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C55">
+        <v>6.75</v>
+      </c>
+      <c r="D55">
+        <v>77</v>
+      </c>
+      <c r="E55">
+        <v>21.2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3.3</v>
+      </c>
+      <c r="B56">
+        <v>0.26</v>
+      </c>
+      <c r="C56">
+        <v>7.14</v>
+      </c>
+      <c r="D56">
+        <v>82</v>
+      </c>
+      <c r="E56">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.36</v>
+      </c>
+      <c r="B57">
+        <v>0.47</v>
+      </c>
+      <c r="C57">
+        <v>7.42</v>
+      </c>
+      <c r="D57">
+        <v>107</v>
+      </c>
+      <c r="E57">
+        <v>22.2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.71</v>
+      </c>
+      <c r="B58">
+        <v>0.93</v>
+      </c>
+      <c r="C58">
+        <v>7.11</v>
+      </c>
+      <c r="D58">
+        <v>84</v>
+      </c>
+      <c r="E58">
+        <v>23.3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.23</v>
+      </c>
+      <c r="B59">
+        <v>0.47</v>
+      </c>
+      <c r="C59">
+        <v>6.92</v>
+      </c>
+      <c r="D59">
+        <v>98</v>
+      </c>
+      <c r="E59">
+        <v>24.1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.35</v>
+      </c>
+      <c r="B60">
+        <v>0.52</v>
+      </c>
+      <c r="C60">
+        <v>7.28</v>
+      </c>
+      <c r="D60">
+        <v>91</v>
+      </c>
+      <c r="E60">
+        <v>22.1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5.22</v>
+      </c>
+      <c r="B61">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C61">
+        <v>7.23</v>
+      </c>
+      <c r="D61">
+        <v>101</v>
+      </c>
+      <c r="E61">
+        <v>26.7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2.74</v>
+      </c>
+      <c r="B62">
+        <v>101.88</v>
+      </c>
+      <c r="C62">
+        <v>7.32</v>
+      </c>
+      <c r="D62">
+        <v>134</v>
+      </c>
+      <c r="E62">
+        <v>26.6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2.74</v>
+      </c>
+      <c r="B63">
+        <v>93.73</v>
+      </c>
+      <c r="C63">
+        <v>7.55</v>
+      </c>
+      <c r="D63">
+        <v>128</v>
+      </c>
+      <c r="E63">
+        <v>26.6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.84</v>
+      </c>
+      <c r="B64">
+        <v>69.97</v>
+      </c>
+      <c r="C64">
+        <v>7.23</v>
+      </c>
+      <c r="D64">
+        <v>116</v>
+      </c>
+      <c r="E64">
+        <v>26.7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.83</v>
+      </c>
+      <c r="B65">
+        <v>108.82</v>
+      </c>
+      <c r="C65">
+        <v>7.23</v>
+      </c>
+      <c r="D65">
+        <v>91</v>
+      </c>
+      <c r="E65">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.66</v>
+      </c>
+      <c r="B66">
+        <v>9.94</v>
+      </c>
+      <c r="C66">
+        <v>7.42</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+      <c r="E66">
+        <v>25.8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.73</v>
+      </c>
+      <c r="B67">
+        <v>9.68</v>
+      </c>
+      <c r="C67">
+        <v>7.06</v>
+      </c>
+      <c r="D67">
+        <v>103</v>
+      </c>
+      <c r="E67">
+        <v>26.5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.08</v>
+      </c>
+      <c r="B68">
+        <v>1.8</v>
+      </c>
+      <c r="C68">
+        <v>6.87</v>
+      </c>
+      <c r="D68">
+        <v>124</v>
+      </c>
+      <c r="E68">
+        <v>26.6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.96</v>
+      </c>
+      <c r="B69">
+        <v>3.75</v>
+      </c>
+      <c r="C69">
+        <v>7.35</v>
+      </c>
+      <c r="D69">
+        <v>119</v>
+      </c>
+      <c r="E69">
+        <v>26.8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.47</v>
+      </c>
+      <c r="B70">
+        <v>0.73</v>
+      </c>
+      <c r="C70">
+        <v>6.97</v>
+      </c>
+      <c r="D70">
+        <v>99</v>
+      </c>
+      <c r="E70">
+        <v>25.5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3.1</v>
+      </c>
+      <c r="B71">
+        <v>0.76</v>
+      </c>
+      <c r="C71">
+        <v>7.19</v>
+      </c>
+      <c r="D71">
+        <v>88</v>
+      </c>
+      <c r="E71">
+        <v>25.4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3.06</v>
+      </c>
+      <c r="B72">
+        <v>0.59</v>
+      </c>
+      <c r="C72">
+        <v>7.32</v>
+      </c>
+      <c r="D72">
+        <v>110</v>
+      </c>
+      <c r="E72">
+        <v>25.4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.56</v>
+      </c>
+      <c r="B73">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C73">
+        <v>7.29</v>
+      </c>
+      <c r="D73">
+        <v>123</v>
+      </c>
+      <c r="E73">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3.46</v>
+      </c>
+      <c r="B74">
+        <v>3.39</v>
+      </c>
+      <c r="C74">
+        <v>7.32</v>
+      </c>
+      <c r="D74">
+        <v>123</v>
+      </c>
+      <c r="E74">
+        <v>25.3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.71</v>
+      </c>
+      <c r="B75">
+        <v>0.73</v>
+      </c>
+      <c r="C75">
+        <v>7.35</v>
+      </c>
+      <c r="D75">
+        <v>82</v>
+      </c>
+      <c r="E75">
+        <v>25.1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20.71</v>
+      </c>
+      <c r="B76">
+        <v>5.84</v>
+      </c>
+      <c r="C76">
+        <v>7.04</v>
+      </c>
+      <c r="D76">
+        <v>113</v>
+      </c>
+      <c r="E76">
+        <v>28.1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7.11</v>
+      </c>
+      <c r="B77">
+        <v>2.84</v>
+      </c>
+      <c r="C77">
+        <v>6.82</v>
+      </c>
+      <c r="D77">
+        <v>90</v>
+      </c>
+      <c r="E77">
+        <v>29.4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>14.24</v>
+      </c>
+      <c r="B78">
+        <v>3.75</v>
+      </c>
+      <c r="C78">
+        <v>6.78</v>
+      </c>
+      <c r="D78">
+        <v>158</v>
+      </c>
+      <c r="E78">
+        <v>29.6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7.98</v>
+      </c>
+      <c r="B79">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C79">
+        <v>6.25</v>
+      </c>
+      <c r="D79">
+        <v>38</v>
+      </c>
+      <c r="E79">
+        <v>29.4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2.15</v>
+      </c>
+      <c r="B80">
+        <v>4.71</v>
+      </c>
+      <c r="C80">
+        <v>7.72</v>
+      </c>
+      <c r="D80">
+        <v>77</v>
+      </c>
+      <c r="E80">
+        <v>30.4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B81">
+        <v>9.68</v>
+      </c>
+      <c r="C81">
+        <v>7.35</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>29.7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1.63</v>
+      </c>
+      <c r="B82">
+        <v>3.88</v>
+      </c>
+      <c r="C82">
+        <v>7.73</v>
+      </c>
+      <c r="D82">
+        <v>129</v>
+      </c>
+      <c r="E82">
+        <v>29.4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.93</v>
+      </c>
+      <c r="B83">
+        <v>5.66</v>
+      </c>
+      <c r="C83">
+        <v>7.55</v>
+      </c>
+      <c r="D83">
+        <v>142</v>
+      </c>
+      <c r="E83">
+        <v>30.5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="B84">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C84">
+        <v>7.66</v>
+      </c>
+      <c r="D84">
+        <v>196</v>
+      </c>
+      <c r="E84">
+        <v>30.5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.62</v>
+      </c>
+      <c r="B85">
+        <v>3.16</v>
+      </c>
+      <c r="C85">
+        <v>7.77</v>
+      </c>
+      <c r="D85">
+        <v>93</v>
+      </c>
+      <c r="E85">
+        <v>30.9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1.99</v>
+      </c>
+      <c r="B86">
+        <v>1.59</v>
+      </c>
+      <c r="C86">
+        <v>7.62</v>
+      </c>
+      <c r="D86">
+        <v>195</v>
+      </c>
+      <c r="E86">
+        <v>30.6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.54</v>
+      </c>
+      <c r="B87">
+        <v>1.29</v>
+      </c>
+      <c r="C87">
+        <v>8.35</v>
+      </c>
+      <c r="D87">
+        <v>170</v>
+      </c>
+      <c r="E87">
+        <v>30.6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3.99</v>
+      </c>
+      <c r="B88">
+        <v>1.73</v>
+      </c>
+      <c r="C88">
+        <v>6.63</v>
+      </c>
+      <c r="D88">
+        <v>144</v>
+      </c>
+      <c r="E88">
+        <v>30.4</v>
+      </c>
+      <c r="F88" t="s">
         <v>6</v>
       </c>
     </row>
